--- a/working-files-data/resource_create.xlsx
+++ b/working-files-data/resource_create.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SVV6P22AUSER01.vegvesen.no\site_22A_E$\HILAUS\documents\CKAN\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HILAUS\GitHub\svv-ckan-setup\synced_folders\src\svv-ckan-import\working-files-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="119">
   <si>
     <t>trafikkinformasjon</t>
   </si>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>https://www.vegvesen.no/nvdb/api/v2/vegobjekter/871.json?inkluder=%22alle%22</t>
+  </si>
+  <si>
+    <t>fotoboks</t>
+  </si>
+  <si>
+    <t>Regionsvise oversikter</t>
+  </si>
+  <si>
+    <t>http://www.vegvesen.no/fag/fokusomrader/Trafikksikkerhet/Automatisk+trafikkontroll+ATK/Regionvise+oversikter</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1204,16 +1213,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1274,27 +1283,30 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -1302,13 +1314,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
+      <c r="D9" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -1316,215 +1328,215 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
+      <c r="D10" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>94</v>
+      <c r="D11" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
       </c>
       <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -1535,10 +1547,10 @@
         <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>22</v>
       </c>
@@ -1549,38 +1561,38 @@
         <v>80</v>
       </c>
       <c r="E26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>20</v>
       </c>
@@ -1591,83 +1603,77 @@
         <v>69</v>
       </c>
       <c r="E29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
@@ -1675,139 +1681,142 @@
         <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
         <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
         <v>38</v>
@@ -1815,83 +1824,83 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" t="s">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E50" t="s">
         <v>32</v>
@@ -1899,85 +1908,99 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>96</v>
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:F66">
-    <sortCondition ref="D2:D66"/>
+  <sortState ref="A2:F54">
+    <sortCondition ref="B2:B54"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D53" r:id="rId1"/>
-    <hyperlink ref="D54" r:id="rId2"/>
-    <hyperlink ref="D13" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-    <hyperlink ref="D15" r:id="rId5"/>
-    <hyperlink ref="D16" r:id="rId6"/>
-    <hyperlink ref="D17" r:id="rId7"/>
-    <hyperlink ref="D18" r:id="rId8"/>
-    <hyperlink ref="D19" r:id="rId9"/>
-    <hyperlink ref="D20" r:id="rId10"/>
-    <hyperlink ref="D21" r:id="rId11"/>
-    <hyperlink ref="D22" r:id="rId12"/>
-    <hyperlink ref="D23" r:id="rId13"/>
-    <hyperlink ref="D24" r:id="rId14"/>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D31" r:id="rId3"/>
+    <hyperlink ref="D32" r:id="rId4"/>
+    <hyperlink ref="D38" r:id="rId5"/>
+    <hyperlink ref="D39" r:id="rId6"/>
+    <hyperlink ref="D42" r:id="rId7"/>
+    <hyperlink ref="D43" r:id="rId8"/>
+    <hyperlink ref="D47" r:id="rId9"/>
+    <hyperlink ref="D48" r:id="rId10"/>
+    <hyperlink ref="D50" r:id="rId11"/>
+    <hyperlink ref="D51" r:id="rId12"/>
+    <hyperlink ref="D54" r:id="rId13"/>
+    <hyperlink ref="D55" r:id="rId14"/>
     <hyperlink ref="D3" r:id="rId15"/>
     <hyperlink ref="D4" r:id="rId16"/>
     <hyperlink ref="D5" r:id="rId17"/>
     <hyperlink ref="D6" r:id="rId18"/>
-    <hyperlink ref="D7" r:id="rId19"/>
-    <hyperlink ref="D8" r:id="rId20"/>
+    <hyperlink ref="D10" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId21"/>
